--- a/medicine/Psychotrope/Brasserie_Jouret/Brasserie_Jouret.xlsx
+++ b/medicine/Psychotrope/Brasserie_Jouret/Brasserie_Jouret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La brasserie Jouret, aussi connue sous le nom de brasserie Van Geersdaele[1], est une ancienne brasserie historique de la commune de Biévène, en Belgique[2].
-Depuis 2019, cette ancienne marque a été relancée sous le nom de Les Brasseries de Flobecq dans la ville voisine de Flobecq[3].
+La brasserie Jouret, aussi connue sous le nom de brasserie Van Geersdaele, est une ancienne brasserie historique de la commune de Biévène, en Belgique.
+Depuis 2019, cette ancienne marque a été relancée sous le nom de Les Brasseries de Flobecq dans la ville voisine de Flobecq.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Histoire de la brasserie Jouret – Van Geersdaele</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fondatrice de la brasserie Jouret était Jeanne Catherine Rigaux, fille de Charles Henri Rigaux et petite-fille de Josse Rigaux (exploitants de la brasserie Rigaux). Elle épouse Jacques Philippe Albert Joseph Decoster en 1812. Ensemble, ils développèrent déjà les activités de construction, mais Jacques Decoster mourut à l'âge de 24 ans en 1816. En mai 1818, Jeanne Catherine épousa Jean Joseph Jouret, qui donna son nom à la nouvelle brasserie et devint plus tard maire de Bever[4]. Ensemble, ils ont continué à exploiter la brasserie sur le site. Après la mort de Jean Joseph, la brasserie passa à son fils aîné Jean Louis. Le 27 octobre 1885, la brasserie brûle en partie, mais elle est certainement reconstruite car en 1888 Octave Decoster, marié à l'arrière-petite-fille du fondateur, reçoit l'autorisation d'installer une machine à vapeur. Celui-ci n'a jamais été installé car une haute cheminée a dû être construite pour cela, ce qui a conduit à la construction de la nouvelle brasserie en 1893.
-Dans son livre, Dominique Delvin mentionne qu'après la famille Decoster-Jouret, la brasserie passa à Odilon Jouret. Faute d'intérêt de la part de cette famille, la brasserie est reprise par les frères Georges et Louis Félix Van Geersdaele. Georges Van Geersdaele a acheté le bâtiment en 1904 ou 1905. Vers 1910, Georges Van Geersdaele cesse d'exploiter la brasserie de la Place. Il fut alors construit une auberge et une salle de banquet sous le nom de « Folies Bergère » et connut de nombreuses années de succès. Georges Vangeersdaele construit une nouvelle brasserie à Pontenbeek. En 1935, la brasserie ferme définitivement. Le bâtiment est repris en 1942 par la famille Sauvage qui y installe un commerce de marchandises coloniales[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fondatrice de la brasserie Jouret était Jeanne Catherine Rigaux, fille de Charles Henri Rigaux et petite-fille de Josse Rigaux (exploitants de la brasserie Rigaux). Elle épouse Jacques Philippe Albert Joseph Decoster en 1812. Ensemble, ils développèrent déjà les activités de construction, mais Jacques Decoster mourut à l'âge de 24 ans en 1816. En mai 1818, Jeanne Catherine épousa Jean Joseph Jouret, qui donna son nom à la nouvelle brasserie et devint plus tard maire de Bever. Ensemble, ils ont continué à exploiter la brasserie sur le site. Après la mort de Jean Joseph, la brasserie passa à son fils aîné Jean Louis. Le 27 octobre 1885, la brasserie brûle en partie, mais elle est certainement reconstruite car en 1888 Octave Decoster, marié à l'arrière-petite-fille du fondateur, reçoit l'autorisation d'installer une machine à vapeur. Celui-ci n'a jamais été installé car une haute cheminée a dû être construite pour cela, ce qui a conduit à la construction de la nouvelle brasserie en 1893.
+Dans son livre, Dominique Delvin mentionne qu'après la famille Decoster-Jouret, la brasserie passa à Odilon Jouret. Faute d'intérêt de la part de cette famille, la brasserie est reprise par les frères Georges et Louis Félix Van Geersdaele. Georges Van Geersdaele a acheté le bâtiment en 1904 ou 1905. Vers 1910, Georges Van Geersdaele cesse d'exploiter la brasserie de la Place. Il fut alors construit une auberge et une salle de banquet sous le nom de « Folies Bergère » et connut de nombreuses années de succès. Georges Vangeersdaele construit une nouvelle brasserie à Pontenbeek. En 1935, la brasserie ferme définitivement. Le bâtiment est repris en 1942 par la famille Sauvage qui y installe un commerce de marchandises coloniales.
 			Source : collection Erfgoed Bever (Werner Godfroid)
 			Source: Collection Erfgoed Bever (Werner Godfroid)
 </t>
